--- a/data/tehilim-data/5.xlsx
+++ b/data/tehilim-data/5.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="192">
   <si>
     <t>original</t>
   </si>
@@ -211,10 +211,16 @@
     <t>безумцы</t>
   </si>
   <si>
-    <t>לְנֶגֶד עֵינֶיךָ</t>
+    <t xml:space="preserve">לְנֶגֶד </t>
   </si>
   <si>
-    <t>перед очами Твоими</t>
+    <t xml:space="preserve">перед </t>
+  </si>
+  <si>
+    <t>עֵינֶיךָ</t>
+  </si>
+  <si>
+    <t>очами Твоими</t>
   </si>
   <si>
     <t>שָׂנֵאתָ</t>
@@ -223,10 +229,16 @@
     <t>Ты ненавидишь</t>
   </si>
   <si>
-    <t>כָּל-פֹּעֲלֵי אָוֶן</t>
+    <t>אָוֶן</t>
   </si>
   <si>
-    <t>всех делающих беззаконие</t>
+    <t xml:space="preserve">всех </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כָּל-פֹּעֲלֵי </t>
+  </si>
+  <si>
+    <t>делающих беззаконие</t>
   </si>
   <si>
     <t>ז</t>
@@ -238,10 +250,16 @@
     <t>Истребишь</t>
   </si>
   <si>
-    <t>דֹּבְרֵי כָזָב</t>
+    <t xml:space="preserve">דֹּבְרֵי </t>
   </si>
   <si>
-    <t>говорящих ложь</t>
+    <t xml:space="preserve">говорящих </t>
+  </si>
+  <si>
+    <t>כָזָב</t>
+  </si>
+  <si>
+    <t>ложь</t>
   </si>
   <si>
     <t>אִישׁ-דָּמִים</t>
@@ -274,10 +292,16 @@
     <t>А я</t>
   </si>
   <si>
-    <t>בְּרֹב חַסְדְּךָ</t>
+    <t xml:space="preserve">בְּרֹב </t>
   </si>
   <si>
-    <t>по множеству милости Твоей</t>
+    <t xml:space="preserve">по множеству </t>
+  </si>
+  <si>
+    <t>חַסְדְּךָ</t>
+  </si>
+  <si>
+    <t>милости Твоей</t>
   </si>
   <si>
     <t>אָבוֹא</t>
@@ -2161,11 +2185,11 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="7">
-        <v>7.0</v>
+      <c r="B42" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
@@ -2194,10 +2218,10 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
@@ -2225,11 +2249,11 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>75</v>
+      <c r="A44" s="7" t="s">
+        <v>76</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>76</v>
+      <c r="B44" s="7">
+        <v>7.0</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
@@ -2354,10 +2378,10 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
@@ -2385,11 +2409,11 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
-        <v>84</v>
+      <c r="A49" s="5" t="s">
+        <v>85</v>
       </c>
-      <c r="B49" s="7">
-        <v>8.0</v>
+      <c r="B49" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
@@ -2418,10 +2442,10 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
@@ -2450,10 +2474,10 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
@@ -2481,11 +2505,11 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>89</v>
+      <c r="A52" s="7" t="s">
+        <v>90</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>90</v>
+      <c r="B52" s="7">
+        <v>8.0</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -2641,11 +2665,11 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="7">
-        <v>9.0</v>
+      <c r="B57" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
@@ -2674,10 +2698,10 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
@@ -2706,10 +2730,10 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
@@ -2738,10 +2762,10 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
@@ -2769,11 +2793,11 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
-        <v>104</v>
+      <c r="A61" s="7" t="s">
+        <v>107</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>105</v>
+      <c r="B61" s="7">
+        <v>9.0</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
@@ -2802,10 +2826,10 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
@@ -2929,11 +2953,11 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B66" s="7">
-        <v>10.0</v>
+      <c r="B66" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -2962,10 +2986,10 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -2994,10 +3018,10 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -3026,10 +3050,10 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
@@ -3057,11 +3081,11 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="s">
-        <v>121</v>
+      <c r="A70" s="7" t="s">
+        <v>122</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>122</v>
+      <c r="B70" s="7">
+        <v>10.0</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
@@ -3249,11 +3273,11 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="7">
-        <v>11.0</v>
+      <c r="B76" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
@@ -3282,10 +3306,10 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -3314,10 +3338,10 @@
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
@@ -3346,10 +3370,10 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
@@ -3377,11 +3401,11 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="s">
-        <v>140</v>
+      <c r="A80" s="7" t="s">
+        <v>141</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>141</v>
+      <c r="B80" s="7">
+        <v>11.0</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
@@ -3537,11 +3561,11 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B85" s="7">
-        <v>12.0</v>
+      <c r="B85" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
@@ -3570,10 +3594,10 @@
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
@@ -3602,10 +3626,10 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -3634,10 +3658,10 @@
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
@@ -3665,11 +3689,11 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="s">
-        <v>157</v>
+      <c r="A89" s="7" t="s">
+        <v>158</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>158</v>
+      <c r="B89" s="7">
+        <v>12.0</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
@@ -3889,11 +3913,11 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B96" s="7">
-        <v>13.0</v>
+      <c r="B96" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
@@ -3922,10 +3946,10 @@
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
@@ -3954,10 +3978,10 @@
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -3986,10 +4010,10 @@
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
@@ -4017,11 +4041,11 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="s">
-        <v>18</v>
+      <c r="A100" s="7" t="s">
+        <v>179</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>19</v>
+      <c r="B100" s="7">
+        <v>13.0</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
@@ -4050,10 +4074,10 @@
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
@@ -4082,10 +4106,10 @@
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
@@ -4114,10 +4138,10 @@
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
@@ -4145,9 +4169,13 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -4173,9 +4201,13 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -4201,9 +4233,13 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -4229,9 +4265,13 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -29456,6 +29496,118 @@
       <c r="Y1007" s="3"/>
       <c r="Z1007" s="3"/>
     </row>
+    <row r="1008">
+      <c r="A1008" s="3"/>
+      <c r="B1008" s="3"/>
+      <c r="C1008" s="3"/>
+      <c r="D1008" s="3"/>
+      <c r="E1008" s="3"/>
+      <c r="F1008" s="3"/>
+      <c r="G1008" s="3"/>
+      <c r="H1008" s="3"/>
+      <c r="I1008" s="3"/>
+      <c r="J1008" s="3"/>
+      <c r="K1008" s="3"/>
+      <c r="L1008" s="3"/>
+      <c r="M1008" s="3"/>
+      <c r="N1008" s="3"/>
+      <c r="O1008" s="3"/>
+      <c r="P1008" s="3"/>
+      <c r="Q1008" s="3"/>
+      <c r="R1008" s="3"/>
+      <c r="S1008" s="3"/>
+      <c r="T1008" s="3"/>
+      <c r="U1008" s="3"/>
+      <c r="V1008" s="3"/>
+      <c r="W1008" s="3"/>
+      <c r="X1008" s="3"/>
+      <c r="Y1008" s="3"/>
+      <c r="Z1008" s="3"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="3"/>
+      <c r="B1009" s="3"/>
+      <c r="C1009" s="3"/>
+      <c r="D1009" s="3"/>
+      <c r="E1009" s="3"/>
+      <c r="F1009" s="3"/>
+      <c r="G1009" s="3"/>
+      <c r="H1009" s="3"/>
+      <c r="I1009" s="3"/>
+      <c r="J1009" s="3"/>
+      <c r="K1009" s="3"/>
+      <c r="L1009" s="3"/>
+      <c r="M1009" s="3"/>
+      <c r="N1009" s="3"/>
+      <c r="O1009" s="3"/>
+      <c r="P1009" s="3"/>
+      <c r="Q1009" s="3"/>
+      <c r="R1009" s="3"/>
+      <c r="S1009" s="3"/>
+      <c r="T1009" s="3"/>
+      <c r="U1009" s="3"/>
+      <c r="V1009" s="3"/>
+      <c r="W1009" s="3"/>
+      <c r="X1009" s="3"/>
+      <c r="Y1009" s="3"/>
+      <c r="Z1009" s="3"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="3"/>
+      <c r="B1010" s="3"/>
+      <c r="C1010" s="3"/>
+      <c r="D1010" s="3"/>
+      <c r="E1010" s="3"/>
+      <c r="F1010" s="3"/>
+      <c r="G1010" s="3"/>
+      <c r="H1010" s="3"/>
+      <c r="I1010" s="3"/>
+      <c r="J1010" s="3"/>
+      <c r="K1010" s="3"/>
+      <c r="L1010" s="3"/>
+      <c r="M1010" s="3"/>
+      <c r="N1010" s="3"/>
+      <c r="O1010" s="3"/>
+      <c r="P1010" s="3"/>
+      <c r="Q1010" s="3"/>
+      <c r="R1010" s="3"/>
+      <c r="S1010" s="3"/>
+      <c r="T1010" s="3"/>
+      <c r="U1010" s="3"/>
+      <c r="V1010" s="3"/>
+      <c r="W1010" s="3"/>
+      <c r="X1010" s="3"/>
+      <c r="Y1010" s="3"/>
+      <c r="Z1010" s="3"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="3"/>
+      <c r="B1011" s="3"/>
+      <c r="C1011" s="3"/>
+      <c r="D1011" s="3"/>
+      <c r="E1011" s="3"/>
+      <c r="F1011" s="3"/>
+      <c r="G1011" s="3"/>
+      <c r="H1011" s="3"/>
+      <c r="I1011" s="3"/>
+      <c r="J1011" s="3"/>
+      <c r="K1011" s="3"/>
+      <c r="L1011" s="3"/>
+      <c r="M1011" s="3"/>
+      <c r="N1011" s="3"/>
+      <c r="O1011" s="3"/>
+      <c r="P1011" s="3"/>
+      <c r="Q1011" s="3"/>
+      <c r="R1011" s="3"/>
+      <c r="S1011" s="3"/>
+      <c r="T1011" s="3"/>
+      <c r="U1011" s="3"/>
+      <c r="V1011" s="3"/>
+      <c r="W1011" s="3"/>
+      <c r="X1011" s="3"/>
+      <c r="Y1011" s="3"/>
+      <c r="Z1011" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
